--- a/est-sen-perc95-2018.xlsx
+++ b/est-sen-perc95-2018.xlsx
@@ -1192,7 +1192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1623,11 +1622,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="80468992"/>
-        <c:axId val="85545728"/>
+        <c:axId val="124010496"/>
+        <c:axId val="124012032"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="80468992"/>
+        <c:axId val="124010496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,13 +1634,13 @@
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85545728"/>
+        <c:crossAx val="124012032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85545728"/>
+        <c:axId val="124012032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,25 +1675,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80468992"/>
+        <c:crossAx val="124010496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1730,7 +1727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2125,11 +2121,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="85575168"/>
-        <c:axId val="85576704"/>
+        <c:axId val="124025088"/>
+        <c:axId val="124039168"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="85575168"/>
+        <c:axId val="124025088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,13 +2133,13 @@
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85576704"/>
+        <c:crossAx val="124039168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85576704"/>
+        <c:axId val="124039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,25 +2174,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85575168"/>
+        <c:crossAx val="124025088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2232,7 +2226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2663,11 +2656,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="86077440"/>
-        <c:axId val="86078976"/>
+        <c:axId val="124060416"/>
+        <c:axId val="124061952"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="86077440"/>
+        <c:axId val="124060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,13 +2668,13 @@
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86078976"/>
+        <c:crossAx val="124061952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86078976"/>
+        <c:axId val="124061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,25 +2709,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86077440"/>
+        <c:crossAx val="124060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -57981,10 +57972,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -58015,7 +58007,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="7">
         <v>109091</v>
       </c>
@@ -58032,7 +58024,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="7">
         <v>154108</v>
       </c>
@@ -58049,7 +58041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="7">
         <v>114128</v>
       </c>
@@ -58066,7 +58058,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="7" t="s">
         <v>180</v>
       </c>
@@ -58083,24 +58075,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>178</v>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" s="7">
+        <v>107131</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="7">
         <v>154110</v>
       </c>
@@ -58117,12 +58109,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>107131</v>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -58136,22 +58128,22 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -58168,7 +58160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="7" t="s">
         <v>179</v>
       </c>
@@ -58185,7 +58177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -58222,12 +58214,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -58236,18 +58228,15 @@
         <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -58261,10 +58250,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -58273,15 +58262,18 @@
         <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="F16">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="7">
-        <v>151503</v>
+        <v>107130</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -58290,15 +58282,15 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
+        <v>151503</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -58310,12 +58302,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7">
-        <v>107130</v>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -58324,10 +58316,10 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -58344,7 +58336,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -58361,12 +58353,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="7">
-        <v>155224</v>
+        <v>150209</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -58375,15 +58367,15 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
+      <c r="A23" s="7">
+        <v>153350</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -58392,15 +58384,15 @@
         <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="7">
-        <v>150209</v>
+        <v>155224</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -58409,15 +58401,15 @@
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7">
-        <v>153350</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -58426,10 +58418,10 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="7" t="s">
         <v>182</v>
       </c>
@@ -58446,7 +58438,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -58463,29 +58455,29 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="7">
-        <v>155223</v>
+        <v>153313</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="7">
-        <v>153313</v>
+        <v>153320</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -58497,46 +58489,46 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="7">
-        <v>153320</v>
+        <v>155223</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -58545,30 +58537,30 @@
         <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32">
-        <v>155224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F33">
+        <v>155224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
@@ -58585,7 +58577,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="7">
         <v>153314</v>
       </c>
@@ -58602,7 +58594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="7">
         <v>156104</v>
       </c>
@@ -58619,7 +58611,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="7">
         <v>156109</v>
       </c>
@@ -58636,7 +58628,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="7" t="s">
         <v>22</v>
       </c>
@@ -58653,7 +58645,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -58670,12 +58662,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="7">
-        <v>156113</v>
+        <v>111583</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -58684,15 +58676,15 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1">
+      <c r="A41" s="7">
+        <v>156110</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -58701,15 +58693,15 @@
         <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="7">
+        <v>156113</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -58721,12 +58713,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -58735,15 +58727,15 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="7">
-        <v>111583</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -58752,15 +58744,15 @@
         <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="7">
-        <v>156110</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -58769,15 +58761,15 @@
         <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -58789,12 +58781,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -58803,12 +58795,23 @@
         <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F47">
-    <sortState ref="A2:F47">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="VNP"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="VER"/>
+        <filter val="YA"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:F47">
       <sortCondition descending="1" ref="C1:C47"/>
     </sortState>
   </autoFilter>
